--- a/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,11; 26,23</t>
+          <t>10,47; 26,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,03</t>
+          <t>1,04; 7,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,96</t>
+          <t>6,5; 14,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,21; 23,49</t>
+          <t>15,92; 23,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,68</t>
+          <t>4,14; 7,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,87</t>
+          <t>10,18; 14,81</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,19</t>
+          <t>16,95; 24,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,38</t>
+          <t>5,99; 9,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 15,99</t>
+          <t>12,23; 16,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 19,05</t>
+          <t>12,28; 19,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,67</t>
+          <t>3,19; 7,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 12,29</t>
+          <t>7,55; 12,06</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 23,52</t>
+          <t>17,21; 23,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,88</t>
+          <t>5,8; 9,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,58; 15,27</t>
+          <t>11,69; 15,2</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,93</t>
+          <t>17,3; 20,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,62</t>
+          <t>5,67; 7,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,47; 13,4</t>
+          <t>11,55; 13,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34D_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 26,58</t>
+          <t>15,65; 23,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,07</t>
+          <t>3,72; 6,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,16</t>
+          <t>9,97; 14,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>13,2%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 23,68</t>
+          <t>8,62; 23,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,95</t>
+          <t>6,1; 9,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,81</t>
+          <t>8,88; 15,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 24,16</t>
+          <t>12,41; 19,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 9,43</t>
+          <t>2,18; 6,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,11</t>
+          <t>5,96; 11,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,04</t>
+          <t>17,65; 24,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,66</t>
+          <t>5,29; 8,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,06</t>
+          <t>11,48; 15,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,32</t>
+          <t>14,09; 20,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,64</t>
+          <t>4,96; 7,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 15,2</t>
+          <t>10,65; 13,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>19,06%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,3; 20,9</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 7,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>11,55; 13,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
